--- a/code/test.xlsx
+++ b/code/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F693B-D571-4433-AC01-C8E94EB17A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46E55A-E6F3-4BBA-A2B9-B9B09B838AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Stkcd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>Mretwd</t>
+  </si>
+  <si>
+    <t>Trdmnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -85,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -367,15 +373,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.4140625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,159 +403,181 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.12887342992108941</v>
+        <v>0.17482025323923878</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F7" ca="1" si="0">RAND()</f>
-        <v>0.50195732783170643</v>
+        <v>0.88030940728207541</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7000998640439301</v>
+        <v>0.44185229272213988</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96594608863740417</v>
+        <v>0.3973632751624836</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86120936082423039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.46405999131113984</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B7" ca="1" si="1">RAND()</f>
-        <v>0.62276694711649783</v>
+        <v>0.82974814528322083</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59180110633429894</v>
+        <v>5.4634419389748556E-2</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86193091247704756</v>
+        <v>0.31285325599737845</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46951840341735218</v>
+        <v>0.38818945988933684</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98360294261941295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.41560202584637307</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67596141062164794</v>
+        <v>6.1803276993068312E-2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88496964976123527</v>
+        <v>0.22542255157261026</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37410813256411501</v>
+        <v>0.45445045349580604</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75771137910068243</v>
+        <v>0.95017414294678293</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53089795603696777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.37205137625927864</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58923981415760596</v>
+        <v>0.79551693238455423</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15299170497356596</v>
+        <v>0.39874959363427964</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68130984466817435</v>
+        <v>0.97870148839988969</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85556881398195339</v>
+        <v>0.80246722075437438</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67768815460651111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.7356676470626704</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52391486851865088</v>
+        <v>0.94641929757908572</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.393139969690262E-2</v>
+        <v>8.2190157863762048E-2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71588283927510743</v>
+        <v>0.47277329709373361</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.531962087730701E-2</v>
+        <v>0.1167843896144698</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62119647258452382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.11742907404125213</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77922262948567889</v>
+        <v>0.86629644375144799</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65942221098455434</v>
+        <v>0.55380107936807532</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60565950883084374</v>
+        <v>0.89206907136527602</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5846312500452916</v>
+        <v>0.1247692218282932</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24695962008026118</v>
+        <v>0.55233162059194763</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42461</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>